--- a/data/trans_camb/P36B02_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B02_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-8.558786012061969</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.335147663911984</v>
+        <v>-1.335147663911973</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-6.950140581043673</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.36391828933121</v>
+        <v>-19.14398686841024</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.75486884926383</v>
+        <v>-13.94703981536625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.181631949838705</v>
+        <v>-5.388123573462284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.07058684267783</v>
+        <v>-12.04269903403772</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.105285267709805</v>
+        <v>-7.925816436784131</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.489902123060491</v>
+        <v>-6.209896768960136</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-13.99429082035334</v>
+        <v>-14.09006124839961</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.296321492211584</v>
+        <v>-9.543189146744528</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.693740963339548</v>
+        <v>-4.758636269938009</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.625203816665532</v>
+        <v>-7.947780469083606</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.326625769359639</v>
+        <v>-3.900555927917444</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.4237639496259</v>
+        <v>2.205018214485526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.318714848379526</v>
+        <v>-2.603632199528105</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.06679940355927255</v>
+        <v>-0.02622258030893154</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7818630584928395</v>
+        <v>1.10816825621485</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.817940607679008</v>
+        <v>-6.830064724749081</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.673901329256249</v>
+        <v>-3.299009148049581</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3326703949998724</v>
+        <v>0.5209692670727742</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.08943251141803789</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.01395123193047423</v>
+        <v>-0.01395123193047411</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.07264895294964796</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2015220651165704</v>
+        <v>-0.1990450791315013</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1416192446782676</v>
+        <v>-0.1459451721631743</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05341877194328362</v>
+        <v>-0.05546898505084018</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1246822593768217</v>
+        <v>-0.1245366991542999</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08424103736533241</v>
+        <v>-0.08166565927483543</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06675920011238645</v>
+        <v>-0.06418537348164952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.144021323458982</v>
+        <v>-0.1466380575550732</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09614500641501193</v>
+        <v>-0.09891539553117151</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.04853341719388744</v>
+        <v>-0.04957846057181024</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.09243001327535687</v>
+        <v>-0.08575543003667523</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.04585580305516378</v>
+        <v>-0.04201959567038488</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02600670640929848</v>
+        <v>0.02367418818487444</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.02478866900928585</v>
+        <v>-0.02725830699378289</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.0008151577481099645</v>
+        <v>-0.0005101194258889696</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007789994421284544</v>
+        <v>0.01126437423335806</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07219479506002716</v>
+        <v>-0.07270729288727579</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0284854995409421</v>
+        <v>-0.03481754554512943</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.003642836854908925</v>
+        <v>0.00541539440270382</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.768133270380735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-16.2659827468817</v>
+        <v>-16.26598274688169</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.8767986768843938</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.304368021197383</v>
+        <v>-4.372335024479054</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.70262179069081</v>
+        <v>-7.06372807127819</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.91678076404449</v>
+        <v>-21.29946102081846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.862002120651534</v>
+        <v>-2.896976033957437</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.290890668087583</v>
+        <v>-3.573803651732056</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.28885576320743</v>
+        <v>-14.31802032026347</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.316293854677472</v>
+        <v>-2.501239728557414</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.029783922274753</v>
+        <v>-4.148031953895784</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-16.71812508099508</v>
+        <v>-16.80099709586182</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.155171949637568</v>
+        <v>4.183101891446644</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.552284913670483</v>
+        <v>1.319291648928802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.83128523847417</v>
+        <v>-10.7658767580764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.616907383091924</v>
+        <v>4.756463192197788</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.013336991971776</v>
+        <v>4.19465047982622</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-6.284718143843309</v>
+        <v>-6.345254230379045</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.149709719871562</v>
+        <v>3.312205431468701</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.72920976116077</v>
+        <v>1.782075317178188</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.661553877009178</v>
+        <v>-10.15268447724985</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.03146106740368238</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1848701379599377</v>
+        <v>-0.1848701379599375</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.009766585213498128</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04767033516847131</v>
+        <v>-0.04836246276867024</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07604083433393122</v>
+        <v>-0.0787080302444966</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2559229578843852</v>
+        <v>-0.2410861045363627</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03109971773155286</v>
+        <v>-0.03146573973841569</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03596636994459333</v>
+        <v>-0.03872080406433481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1562699447225195</v>
+        <v>-0.1565404836025099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02548271751836707</v>
+        <v>-0.0279586321426386</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04494354150418103</v>
+        <v>-0.04567199706701812</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1852707925228063</v>
+        <v>-0.1870890417175795</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04811618621153266</v>
+        <v>0.04915699991260698</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01788450107729289</v>
+        <v>0.01461473471220387</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1244809293008629</v>
+        <v>-0.1252399354163704</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05272270243184078</v>
+        <v>0.05459196479141993</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04636770927157233</v>
+        <v>0.04818793196329747</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07092401041269</v>
+        <v>-0.07187768764483875</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03604624275305419</v>
+        <v>0.03785159096514785</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01975717205108252</v>
+        <v>0.02029602364936143</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1106386836648948</v>
+        <v>-0.1155292348243612</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.445625980006993</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.677183527889094</v>
+        <v>-3.677183527889105</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.3995141902758181</v>
@@ -1092,7 +1092,7 @@
         <v>1.594818282775212</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.02829498132333</v>
+        <v>-1.028294981323352</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.457849938488587</v>
+        <v>-2.339285493427008</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.546017569505752</v>
+        <v>-1.799745178709053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.142606330878454</v>
+        <v>-1.177632800503944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.213507139162464</v>
+        <v>-4.996409656988854</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.6552516814672159</v>
+        <v>-0.8220159546323917</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.47919511614385</v>
+        <v>-7.083030154376366</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.554703940613893</v>
+        <v>-2.538880103647449</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3251719473888705</v>
+        <v>-0.4362773861487637</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.141849107146613</v>
+        <v>-3.333781860493474</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.831533376011913</v>
+        <v>4.650240894091185</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.118606757678617</v>
+        <v>5.165343437398942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.552998818266864</v>
+        <v>5.380102749666669</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.082305624042333</v>
+        <v>1.371525970995794</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.880532321750454</v>
+        <v>3.893066771382342</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.2889127352985196</v>
+        <v>-0.6714753042483624</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.030709174131501</v>
+        <v>2.232500633217914</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.774165668209668</v>
+        <v>3.822240796558697</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.149366908830237</v>
+        <v>1.516918036931429</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.014927916741499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.03797157100571368</v>
+        <v>-0.0379715710057138</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.004169234713259634</v>
@@ -1197,7 +1197,7 @@
         <v>0.01664314286633236</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.01073104093910676</v>
+        <v>-0.010731040939107</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02509395599866473</v>
+        <v>-0.02379768068619759</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01607114136376784</v>
+        <v>-0.01863266807392471</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01151699199343999</v>
+        <v>-0.01217307834889383</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05344452870562982</v>
+        <v>-0.05118744586220701</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.006666290456121419</v>
+        <v>-0.008324373255297128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0662066463230689</v>
+        <v>-0.07206502765483892</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0263372020325502</v>
+        <v>-0.02643755071148618</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.00333767376462263</v>
+        <v>-0.004451436104824351</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03248599344419835</v>
+        <v>-0.03420440216988788</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05308618275162402</v>
+        <v>0.04996723639962282</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05592536596515667</v>
+        <v>0.05583546854595825</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06084719942870053</v>
+        <v>0.05830445018891021</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.0114044314391737</v>
+        <v>0.01446570533427795</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04089278401418571</v>
+        <v>0.04093478998048888</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.003047734909065336</v>
+        <v>-0.00702884836754861</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02159856025174467</v>
+        <v>0.02371612065434189</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04008815947060815</v>
+        <v>0.04053507527780897</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01208655586201845</v>
+        <v>0.01616619505661274</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-4.855872392442739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.580077675706272</v>
+        <v>-2.58007767570626</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.06909372690453441</v>
@@ -1297,7 +1297,7 @@
         <v>-3.475757163746929</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-4.30397533432002</v>
+        <v>-4.303975334320009</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.411717252660438</v>
@@ -1306,7 +1306,7 @@
         <v>-4.144662261186083</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.430969104813708</v>
+        <v>-3.43096910481373</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3741711697788818</v>
+        <v>-0.08716173875383232</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.453263981419029</v>
+        <v>-8.799992446545863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.906302869436123</v>
+        <v>-8.185926701930542</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.461843328231852</v>
+        <v>-2.523807199608806</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.653609497529223</v>
+        <v>-6.853898349182614</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.231441825138293</v>
+        <v>-7.398633328467602</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4766664281327965</v>
+        <v>-0.8594312814682801</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.801589441305206</v>
+        <v>-6.888999538815638</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.586458643081537</v>
+        <v>-6.148188536818204</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.317702597202282</v>
+        <v>6.497120470424961</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.6769326258549277</v>
+        <v>-0.5125313047623841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.764010696948533</v>
+        <v>1.882670476187978</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.417371130090761</v>
+        <v>2.626802738598968</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.297376611495378</v>
+        <v>-0.5051549385544998</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.448828531046489</v>
+        <v>-1.443777371046425</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.516056643289427</v>
+        <v>3.303278534669549</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.602136269252153</v>
+        <v>-1.685336642994997</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.8917416600397566</v>
+        <v>-0.9310997165131816</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.05174323216994655</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.02749280611210788</v>
+        <v>-0.02749280611210776</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.000714064242376798</v>
@@ -1402,7 +1402,7 @@
         <v>-0.03592097310434413</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.04448037504990861</v>
+        <v>-0.04448037504990849</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.01480890925846499</v>
@@ -1411,7 +1411,7 @@
         <v>-0.04347749325668426</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.03599085443351466</v>
+        <v>-0.03599085443351489</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.003363956160708015</v>
+        <v>-0.0008949237368198958</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09950044508413125</v>
+        <v>-0.0930910856716182</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08446140075652783</v>
+        <v>-0.08579167188359331</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02533272850106123</v>
+        <v>-0.02573455625529834</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06869492480406027</v>
+        <v>-0.07061205436558671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07437208519196452</v>
+        <v>-0.07631851011461462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.004950877892831116</v>
+        <v>-0.008924249198929184</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07040396512484784</v>
+        <v>-0.0712230091040545</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06904513613569065</v>
+        <v>-0.06454309301478504</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06953115822501324</v>
+        <v>0.07146464693712083</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.007817818209305492</v>
+        <v>-0.005715144049707014</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0188152610849306</v>
+        <v>0.0203091918163407</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.02559160737533726</v>
+        <v>0.02743823595495627</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.003205478733698037</v>
+        <v>-0.005209288390674316</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01524807572965899</v>
+        <v>-0.01548089470884391</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03720179589703232</v>
+        <v>0.03502402735650368</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.01679202248780336</v>
+        <v>-0.01770878349940282</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.009543064352545136</v>
+        <v>-0.009861314285325572</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.702385162811416</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.932753597671377</v>
+        <v>1.932753597671355</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.6704795808199826</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5669718600584824</v>
+        <v>-0.6606114872116422</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.708745126991254</v>
+        <v>2.853434701453899</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.210027208763873</v>
+        <v>2.552010904954463</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.617654480714369</v>
+        <v>-7.22916639079102</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.004081246365300856</v>
+        <v>0.08082137875865211</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.736100400861306</v>
+        <v>-0.95452533548672</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.79658600620867</v>
+        <v>-2.656700769220795</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.233475691467589</v>
+        <v>2.388733592831507</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.690613350841713</v>
+        <v>1.274202905170297</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.129988167428362</v>
+        <v>9.378304128922672</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.55805585118421</v>
+        <v>11.28551295867999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.08766621540547</v>
+        <v>11.38482101745853</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.619993701304841</v>
+        <v>1.719701066004089</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.446750416601116</v>
+        <v>6.547054315731332</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.59196789155177</v>
+        <v>5.560436045916464</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.243101998124908</v>
+        <v>4.204436351428349</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.038786167391649</v>
+        <v>7.651683537465146</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.01330048377085</v>
+        <v>6.92357289445939</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.02813078542092867</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0201192181913321</v>
+        <v>0.02011921819133187</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.007149789669805038</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.005861974746800139</v>
+        <v>-0.00737706027308577</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02855035851091922</v>
+        <v>0.03045352723995892</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.02397964747799385</v>
+        <v>0.02729537776321002</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07819848597704027</v>
+        <v>-0.07489716602794547</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0002077036815926609</v>
+        <v>0.001156440926327332</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.007810441891036989</v>
+        <v>-0.009755951620433745</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.02913639184532666</v>
+        <v>-0.02787260680517455</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02321936009453239</v>
+        <v>0.02509014309351727</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01804996377144727</v>
+        <v>0.01327346253340239</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1054642041759764</v>
+        <v>0.1072700633467895</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1327652054465891</v>
+        <v>0.1280865478246296</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1292180424376956</v>
+        <v>0.1315495369186553</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01661424664340191</v>
+        <v>0.01832569174170885</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07029020819416831</v>
+        <v>0.07083793571188389</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06019281587431083</v>
+        <v>0.0601286761967017</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04681191159257211</v>
+        <v>0.04583446085829303</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0885656896490582</v>
+        <v>0.08414155068554888</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.07729290822668804</v>
+        <v>0.07616463040909756</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-8.120968078836189</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-7.043349169281998</v>
+        <v>-7.043349169281987</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.246330597342837</v>
@@ -1725,7 +1725,7 @@
         <v>-2.112867576408439</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.173410055746561</v>
+        <v>-2.173410055746583</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.764701283642788</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.031974081341215</v>
+        <v>-3.82062345155076</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-13.59469276849655</v>
+        <v>-12.97816267898793</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-11.72770399433046</v>
+        <v>-11.74408700120648</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.086650043822862</v>
+        <v>-2.27533339087511</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.264239847020361</v>
+        <v>-6.435921380397865</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.494059544177856</v>
+        <v>-5.806480605429707</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.818223808353576</v>
+        <v>-1.773923355368188</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-8.036960675224835</v>
+        <v>-8.367200166414618</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.471500859293924</v>
+        <v>-7.730079197428374</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.881293842846877</v>
+        <v>4.273302138694071</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.835767901710032</v>
+        <v>-3.321568879191986</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.692332199171489</v>
+        <v>-2.422237893193153</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.598510293248866</v>
+        <v>4.910716115417441</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.80028937726457</v>
+        <v>1.940707748300469</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.695187799825682</v>
+        <v>1.475805246269458</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.305577234740188</v>
+        <v>3.533189731802794</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.772444034960006</v>
+        <v>-1.938931993221943</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.708461113801312</v>
+        <v>-1.678865765190118</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.08608752457704105</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.07466406576519145</v>
+        <v>-0.07466406576519134</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.01317788632432585</v>
@@ -1830,7 +1830,7 @@
         <v>-0.02234008279956018</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.02298021946330859</v>
+        <v>-0.02298021946330883</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.008095737845838807</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.04165569356294268</v>
+        <v>-0.03984201550602452</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1411279637531373</v>
+        <v>-0.1357382816601445</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1228528571099801</v>
+        <v>-0.1233372710757829</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.0214986449056311</v>
+        <v>-0.02359849878814065</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.06580556657099383</v>
+        <v>-0.06691962785580069</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05735654365171094</v>
+        <v>-0.06063226363071426</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.0188753689521786</v>
+        <v>-0.01849956032717036</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.08395166539518607</v>
+        <v>-0.08729594059392948</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.0779978518757791</v>
+        <v>-0.08088896281194183</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.04217151569271919</v>
+        <v>0.04623370251168837</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.03123164801085648</v>
+        <v>-0.03797705706725921</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.02962861311187597</v>
+        <v>-0.02598652457333741</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.04970111023478023</v>
+        <v>0.05402612053492598</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.01951635464871002</v>
+        <v>0.02098799560991028</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01802687840725902</v>
+        <v>0.01585325831698639</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03570929620846684</v>
+        <v>0.0378702892218165</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.01914612935008026</v>
+        <v>-0.02065595505997922</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.01818083365099814</v>
+        <v>-0.0181557561872666</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-1.347309290019583</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-3.748755510131929</v>
+        <v>-3.748755510131907</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.363461969436245</v>
+        <v>-3.468851220429814</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.162181798165745</v>
+        <v>-5.4953888937602</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.309963012647843</v>
+        <v>-7.414235253624938</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.186453805469871</v>
+        <v>-1.267971044380327</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.204226329397713</v>
+        <v>-3.123131301220342</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.402981317625807</v>
+        <v>-6.246873691642609</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.502505713708284</v>
+        <v>-1.436997802172397</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.616875103421421</v>
+        <v>-3.548155415507591</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-6.127219093193212</v>
+        <v>-5.899807333776946</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.954525321743469</v>
+        <v>2.179598196765933</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.6092803732165539</v>
+        <v>0.4721392953726526</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.96931814861835</v>
+        <v>-1.196867792198332</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.661454054691235</v>
+        <v>4.448435645284888</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.64608717421554</v>
+        <v>2.723932465253147</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.4525398704634423</v>
+        <v>-0.2624234258313359</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.487932990151746</v>
+        <v>2.505007666449604</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6425365101280744</v>
+        <v>0.6785796074759575</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.537861314568796</v>
+        <v>-1.548809626070726</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.01445009530557295</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.0402059681470101</v>
+        <v>-0.04020596814700986</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03518363175310931</v>
+        <v>-0.03630191942639431</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0547181198862589</v>
+        <v>-0.05813736330210553</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.07680560786516905</v>
+        <v>-0.07801022827135007</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01283945645931201</v>
+        <v>-0.0125579604604311</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03446878957837256</v>
+        <v>-0.03392316886327932</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.06835718820530848</v>
+        <v>-0.06668358006072242</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01598833327027037</v>
+        <v>-0.01499341099339337</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03825369454707794</v>
+        <v>-0.03776203431007119</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.06478705006071651</v>
+        <v>-0.06270755654099409</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.02069561303302786</v>
+        <v>0.02355337515632329</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.006388432474153912</v>
+        <v>0.004952411991389587</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.01100615721940452</v>
+        <v>-0.01365064970440317</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.05166828805799713</v>
+        <v>0.04974857462164526</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02930941813594646</v>
+        <v>0.03025369455059518</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.004975765188994855</v>
+        <v>-0.002640135215151553</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02693423861289925</v>
+        <v>0.0272756437239082</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.006681765464906583</v>
+        <v>0.00757268854667927</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.01665962472649194</v>
+        <v>-0.01667285519045022</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>4.604263406272613</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-8.922636553238593</v>
+        <v>-8.922636553238583</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.9393862845273659</v>
@@ -2153,7 +2153,7 @@
         <v>1.451360519837275</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-9.09713283831417</v>
+        <v>-9.097132838314149</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.647386151376085</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.164094114709321</v>
+        <v>2.077457462256556</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.325313564304939</v>
+        <v>2.345321434435582</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-12.54088037865754</v>
+        <v>-12.23710526393734</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.039469690877908</v>
+        <v>-0.9435179588858349</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.4071448984921829</v>
+        <v>-0.3961276872974024</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-11.71403269262386</v>
+        <v>-11.50199756072735</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.107673625230416</v>
+        <v>1.198535763611395</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.552119217690578</v>
+        <v>1.622421266424516</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-11.21126958772597</v>
+        <v>-11.27429205280823</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.854154988568431</v>
+        <v>6.876757718061248</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.867276250149112</v>
+        <v>6.951706348071819</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-5.506206207455929</v>
+        <v>-5.466676286860181</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.876980653468389</v>
+        <v>2.771036177533378</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.317553159891664</v>
+        <v>3.320572126078871</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-6.618676695581064</v>
+        <v>-6.482213556362912</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.240140646695274</v>
+        <v>4.150693879398126</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.462783633135412</v>
+        <v>4.383541503466304</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-7.029600992976018</v>
+        <v>-6.737445335857872</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.049835153377497</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.09657591712857332</v>
+        <v>-0.09657591712857319</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.009804575196309456</v>
@@ -2258,7 +2258,7 @@
         <v>0.01514815958895853</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.09494871753311084</v>
+        <v>-0.0949487175331106</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.02812002525811241</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.02327098462986188</v>
+        <v>0.02242185637314291</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.02461525172003959</v>
+        <v>0.02495530209364707</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1335381777926855</v>
+        <v>-0.1304495345614189</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.01078480555859052</v>
+        <v>-0.009708854751017865</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.004219232021320516</v>
+        <v>-0.004087657051646078</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1208989196599226</v>
+        <v>-0.1190961815401812</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.0117017740260592</v>
+        <v>0.01268824244708632</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.01625647903844932</v>
+        <v>0.01696663597668073</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1183966958918586</v>
+        <v>-0.1188492108314698</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.0752705398959852</v>
+        <v>0.07616847082499277</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.07574299974070027</v>
+        <v>0.0763162749918896</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.06066730256910401</v>
+        <v>-0.0598663402071782</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.03031881645664529</v>
+        <v>0.02919353057488548</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.03523959191549893</v>
+        <v>0.034987577433233</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.06981798360587212</v>
+        <v>-0.067821542276662</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04541026421907436</v>
+        <v>0.04475560087271228</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0481130724850404</v>
+        <v>0.04706768320490614</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.0752580954428769</v>
+        <v>-0.0724318449185664</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>-0.2570480860348279</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-5.348403407633429</v>
+        <v>-5.348403407633418</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.1389116881054586</v>
@@ -2376,7 +2376,7 @@
         <v>-0.6793396103935478</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-5.516518155397243</v>
+        <v>-5.516518155397232</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.8008806710540323</v>
+        <v>-0.8777579692650469</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.425063444949692</v>
+        <v>-2.473823501929903</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-7.125856926696088</v>
+        <v>-7.338205720694805</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.348482608990671</v>
+        <v>-1.3145894106956</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.436679178486752</v>
+        <v>-1.377661603959095</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-6.550821289281293</v>
+        <v>-6.645398714599176</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.6886698254830702</v>
+        <v>-0.7897719718303472</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.511046012927658</v>
+        <v>-1.608458117525655</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-6.437611215938264</v>
+        <v>-6.529209347369144</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.741688521863797</v>
+        <v>1.6167411082663</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.3169762872076389</v>
+        <v>0.1821427599747199</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-3.958961073531075</v>
+        <v>-4.127463334490447</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.036687796437539</v>
+        <v>0.8991202384811778</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.7685840148859573</v>
+        <v>0.9069186262292217</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-4.057370541727059</v>
+        <v>-4.260559543107095</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.009428382259012</v>
+        <v>0.9643179050728825</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.2045675885852831</v>
+        <v>0.2732589604073748</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-4.437625400038972</v>
+        <v>-4.51927237584828</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.002725494486364341</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.05670940493360489</v>
+        <v>-0.05670940493360477</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.001483958678603727</v>
@@ -2481,7 +2481,7 @@
         <v>-0.00725721445266322</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.058931578069672</v>
+        <v>-0.05893157806967187</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.008557341710641033</v>
+        <v>-0.009430257055686441</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.02591885726705101</v>
+        <v>-0.02657480058374716</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.0761834072406858</v>
+        <v>-0.07872889638193849</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.01414801807412093</v>
+        <v>-0.01380926316048523</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.01506078770230115</v>
+        <v>-0.01451072934678201</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.06893809929455874</v>
+        <v>-0.07000286285728249</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.007326288278198523</v>
+        <v>-0.008405490559886502</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.01607362043368663</v>
+        <v>-0.0171161223112295</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.0686102306616322</v>
+        <v>-0.06958013167518029</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.01892472699052996</v>
+        <v>0.01760321654681694</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.003430723317060569</v>
+        <v>0.001963074490558215</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.04314786780089001</v>
+        <v>-0.04476238857726738</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.01106562879680665</v>
+        <v>0.009580149163687483</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.008203084495149305</v>
+        <v>0.009647999619817042</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.04333664791670682</v>
+        <v>-0.04536439920487161</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.01080996882471485</v>
+        <v>0.0103191325994039</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.002229811744872894</v>
+        <v>0.002929293771390582</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.04760123380367813</v>
+        <v>-0.04852152208005363</v>
       </c>
     </row>
     <row r="58">
